--- a/Avancement.xlsx
+++ b/Avancement.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>a1_Docks_s1-2ndDocksDoorBypass</t>
   </si>
@@ -400,7 +400,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +484,9 @@
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
